--- a/sec_results.xlsx
+++ b/sec_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguilarga\surfdrive - Glenn Aguilar Hernandez@surfdrive.surf.nl3\project_UNICA\WP1-Identfication\T&amp;S_framework\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguilarga\surfdrive - Glenn Aguilar Hernandez@surfdrive.surf.nl3\UNICA_project\WP-1 Identification\T&amp;S_framework\Journal of CE\supplementary_information_v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A47A7-4EB6-4C8A-BD4F-8FA45E8072C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CEA75B-C9C4-49FA-A1D8-4E4FABE2DB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <sheet name="sec_gwp_all" sheetId="8" r:id="rId10"/>
     <sheet name="sec_gwp_sum" sheetId="9" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -224,18 +221,12 @@
     <t>win-lose</t>
   </si>
   <si>
-    <t>Supplementary Material</t>
-  </si>
-  <si>
     <t xml:space="preserve">Summary </t>
   </si>
   <si>
     <t>Latest Update:</t>
   </si>
   <si>
-    <t>May 7, 2024</t>
-  </si>
-  <si>
     <t>Guide to sheets in this Excel workbook</t>
   </si>
   <si>
@@ -260,9 +251,6 @@
     <t>value added</t>
   </si>
   <si>
-    <t>LATAM</t>
-  </si>
-  <si>
     <t>Latin America</t>
   </si>
   <si>
@@ -276,9 +264,6 @@
   </si>
   <si>
     <t>global warming potential</t>
-  </si>
-  <si>
-    <t>This supplementary information includes the sectoral analysis of trade-offs and synergies from the circular economy scenarios proposed by 'A MR EEIO-based framework for identifying synergies and trade-offs of circularity interventions'</t>
   </si>
   <si>
     <r>
@@ -379,6 +364,18 @@
   </si>
   <si>
     <t>GWP</t>
+  </si>
+  <si>
+    <t>November 25, 2025</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>Supplementary Information</t>
+  </si>
+  <si>
+    <t>This supplementary information includes the sectoral analysis of trade-offs and synergies from the circular economy scenarios proposed by 'How to measure Circularity Trade-offs and Synergies?'</t>
   </si>
 </sst>
 </file>
@@ -477,12 +474,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1555,82 +1552,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="geo_all_sum"/>
-      <sheetName val="geo_va"/>
-      <sheetName val="geo_va_all"/>
-      <sheetName val="geo_va_sum"/>
-      <sheetName val="geo_emp"/>
-      <sheetName val="geo_emp_all"/>
-      <sheetName val="geo_emp_sum"/>
-      <sheetName val="geo_gwp"/>
-      <sheetName val="geo_gwp_all"/>
-      <sheetName val="geo_gwp_sum"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Value Added</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Employment</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>GWP</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>EU</v>
-          </cell>
-          <cell r="B2">
-            <v>-1.5146373940653299E-2</v>
-          </cell>
-          <cell r="C2">
-            <v>-4.5636281183198705E-3</v>
-          </cell>
-          <cell r="D2">
-            <v>2.2074328869682597E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>LATAM</v>
-          </cell>
-          <cell r="B3">
-            <v>-5.6838848383968096E-3</v>
-          </cell>
-          <cell r="C3">
-            <v>-5.6149294215072296E-3</v>
-          </cell>
-          <cell r="D3">
-            <v>-9.8585519268550199E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1918,13 +1839,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFCEF9D-6B45-4D32-B509-CD68CF47E5C7}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1932,17 +1855,17 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1950,15 +1873,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1969,115 +1892,115 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2086,62 +2009,62 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="I24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="K24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2731,7 +2654,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2782,34 +2705,34 @@
         <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>-1.32928535674227</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.69690703336667792</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>9.6967101002842213E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>-9.1430856634023487E-4</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-3.5368563531920129E-4</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>-1.145833009256907E-2</v>
       </c>
     </row>
@@ -4235,4 +4158,285 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100317CBEDA08705D4BB42289A96E8DCDD6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e9edd756df6fbb2fff0230e09796a6c6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4427c763-4e05-4841-937d-f6f16be4cd7a" xmlns:ns3="5440cd31-8f87-4896-b94d-c46384663020" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d67f5a3378b4fd22fe2076c238cc19a6" ns2:_="" ns3:_="">
+    <xsd:import namespace="4427c763-4e05-4841-937d-f6f16be4cd7a"/>
+    <xsd:import namespace="5440cd31-8f87-4896-b94d-c46384663020"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4427c763-4e05-4841-937d-f6f16be4cd7a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5631252e-6fa5-4b2b-9987-d0b6e83c6b6b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5440cd31-8f87-4896-b94d-c46384663020" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{89707217-de61-4212-b76f-718299af5e23}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="5440cd31-8f87-4896-b94d-c46384663020">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5440cd31-8f87-4896-b94d-c46384663020" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4427c763-4e05-4841-937d-f6f16be4cd7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7670992-327A-46CC-BF57-1B16AE836345}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4427c763-4e05-4841-937d-f6f16be4cd7a"/>
+    <ds:schemaRef ds:uri="5440cd31-8f87-4896-b94d-c46384663020"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80262A8D-FA6B-437C-B6F3-17A99DA8B475}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCFABBE6-E02B-4649-97EA-A2E2F61B9C89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5440cd31-8f87-4896-b94d-c46384663020"/>
+    <ds:schemaRef ds:uri="4427c763-4e05-4841-937d-f6f16be4cd7a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>